--- a/docs/StructureDefinition-CareConnect-Medication-Flag-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-Medication-Flag-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="282">
   <si>
     <t>Path</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>Allows an flag to be divided into different categories like clinical, administrative etc. Intended to be used as a means of filtering which flags are displayed to particular user or in a given context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/flag-category</t>
   </si>
   <si>
     <t>.code</t>
@@ -3348,7 +3351,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -3381,15 +3384,15 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3492,7 +3495,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3597,7 +3600,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3620,19 +3623,19 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3681,7 +3684,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3696,7 +3699,7 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -3704,7 +3707,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3807,7 +3810,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3912,7 +3915,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3938,23 +3941,23 @@
         <v>61</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>41</v>
@@ -3996,7 +3999,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4011,7 +4014,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -4019,7 +4022,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4045,13 +4048,13 @@
         <v>118</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4101,7 +4104,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4116,7 +4119,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4124,7 +4127,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4150,21 +4153,21 @@
         <v>67</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>41</v>
@@ -4206,7 +4209,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4221,7 +4224,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4229,7 +4232,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4255,21 +4258,21 @@
         <v>118</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>41</v>
@@ -4311,7 +4314,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4326,7 +4329,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4334,7 +4337,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4357,19 +4360,19 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4418,7 +4421,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4433,7 +4436,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -4441,7 +4444,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4467,16 +4470,16 @@
         <v>118</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -4525,7 +4528,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4540,7 +4543,7 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -4548,7 +4551,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4574,13 +4577,13 @@
         <v>139</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4610,7 +4613,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -4628,7 +4631,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>48</v>
@@ -4643,15 +4646,15 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4754,7 +4757,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4859,7 +4862,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4882,19 +4885,19 @@
         <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -4943,7 +4946,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4958,7 +4961,7 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -4966,7 +4969,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5069,7 +5072,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5174,7 +5177,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5200,16 +5203,16 @@
         <v>61</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5258,7 +5261,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5273,7 +5276,7 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -5281,7 +5284,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5307,13 +5310,13 @@
         <v>118</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5363,7 +5366,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5378,7 +5381,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -5386,7 +5389,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5412,14 +5415,14 @@
         <v>67</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -5468,7 +5471,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5483,7 +5486,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -5491,7 +5494,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5517,14 +5520,14 @@
         <v>118</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -5573,7 +5576,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5588,7 +5591,7 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -5596,7 +5599,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5619,19 +5622,19 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -5680,7 +5683,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5695,7 +5698,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -5703,7 +5706,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5729,16 +5732,16 @@
         <v>118</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -5787,7 +5790,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5802,7 +5805,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -5810,7 +5813,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5833,13 +5836,13 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5890,7 +5893,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>48</v>
@@ -5905,15 +5908,15 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5939,10 +5942,10 @@
         <v>162</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5993,7 +5996,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6011,12 +6014,12 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6039,16 +6042,16 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6098,30 +6101,30 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6144,13 +6147,13 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6201,7 +6204,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6216,10 +6219,10 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
